--- a/SourceCode/2023/Dec2023/YeafiAL/TASK 21/CityTemperature.xlsx
+++ b/SourceCode/2023/Dec2023/YeafiAL/TASK 21/CityTemperature.xlsx
@@ -605,7 +605,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
